--- a/trading_data.xlsx
+++ b/trading_data.xlsx
@@ -1832,7 +1832,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:RR46"/>
+  <dimension ref="A1:RR47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -68575,7 +68575,7 @@
         <v>0</v>
       </c>
       <c r="MI46">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="MJ46">
         <v>0</v>
@@ -68993,6 +68993,1466 @@
       </c>
       <c r="RR46">
         <v>580.6848977343349</v>
+      </c>
+    </row>
+    <row r="47" spans="1:486">
+      <c r="A47" s="2">
+        <v>43857</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>141.5619178077402</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>243.5430523819751</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>128.7960589909675</v>
+      </c>
+      <c r="I47">
+        <v>1160.643911413938</v>
+      </c>
+      <c r="J47">
+        <v>49.56160694437676</v>
+      </c>
+      <c r="K47">
+        <v>903.0865242788241</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>3.407910497242101</v>
+      </c>
+      <c r="O47">
+        <v>607.3636272486135</v>
+      </c>
+      <c r="P47">
+        <v>825.4785559185738</v>
+      </c>
+      <c r="Q47">
+        <v>603.308850223541</v>
+      </c>
+      <c r="R47">
+        <v>27.19358954552806</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>0</v>
+      </c>
+      <c r="U47">
+        <v>382.0965802827436</v>
+      </c>
+      <c r="V47">
+        <v>0</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <v>952.4094435083773</v>
+      </c>
+      <c r="Y47">
+        <v>229.8848220045544</v>
+      </c>
+      <c r="Z47">
+        <v>36.25957421451911</v>
+      </c>
+      <c r="AA47">
+        <v>38.35317690150693</v>
+      </c>
+      <c r="AB47">
+        <v>0</v>
+      </c>
+      <c r="AC47">
+        <v>0</v>
+      </c>
+      <c r="AD47">
+        <v>4011.895915323778</v>
+      </c>
+      <c r="AE47">
+        <v>328.4823254914574</v>
+      </c>
+      <c r="AF47">
+        <v>1778.212969740873</v>
+      </c>
+      <c r="AG47">
+        <v>559.2897039746528</v>
+      </c>
+      <c r="AH47">
+        <v>284.3219657333249</v>
+      </c>
+      <c r="AI47">
+        <v>0</v>
+      </c>
+      <c r="AJ47">
+        <v>40.75636455702903</v>
+      </c>
+      <c r="AK47">
+        <v>420.4597212613269</v>
+      </c>
+      <c r="AL47">
+        <v>319.507022943754</v>
+      </c>
+      <c r="AM47">
+        <v>0</v>
+      </c>
+      <c r="AN47">
+        <v>0</v>
+      </c>
+      <c r="AO47">
+        <v>0</v>
+      </c>
+      <c r="AP47">
+        <v>0</v>
+      </c>
+      <c r="AQ47">
+        <v>483.3175565002795</v>
+      </c>
+      <c r="AR47">
+        <v>194.4662418831975</v>
+      </c>
+      <c r="AS47">
+        <v>0</v>
+      </c>
+      <c r="AT47">
+        <v>264.2273604914741</v>
+      </c>
+      <c r="AU47">
+        <v>0</v>
+      </c>
+      <c r="AV47">
+        <v>0</v>
+      </c>
+      <c r="AW47">
+        <v>416.9161187198258</v>
+      </c>
+      <c r="AX47">
+        <v>185.077923127406</v>
+      </c>
+      <c r="AY47">
+        <v>731.7208976805841</v>
+      </c>
+      <c r="AZ47">
+        <v>541.8999834611373</v>
+      </c>
+      <c r="BA47">
+        <v>0</v>
+      </c>
+      <c r="BB47">
+        <v>59.03506789851102</v>
+      </c>
+      <c r="BC47">
+        <v>213.7344263405161</v>
+      </c>
+      <c r="BD47">
+        <v>493.6214727038487</v>
+      </c>
+      <c r="BE47">
+        <v>0</v>
+      </c>
+      <c r="BF47">
+        <v>434.5621599604853</v>
+      </c>
+      <c r="BG47">
+        <v>60.66777948902764</v>
+      </c>
+      <c r="BH47">
+        <v>141.0533882936172</v>
+      </c>
+      <c r="BI47">
+        <v>175.5113662139754</v>
+      </c>
+      <c r="BJ47">
+        <v>46.53918375446253</v>
+      </c>
+      <c r="BK47">
+        <v>0</v>
+      </c>
+      <c r="BL47">
+        <v>116.5022293858265</v>
+      </c>
+      <c r="BM47">
+        <v>1549.481234404241</v>
+      </c>
+      <c r="BN47">
+        <v>588.6857235636483</v>
+      </c>
+      <c r="BO47">
+        <v>0</v>
+      </c>
+      <c r="BP47">
+        <v>766.2275865044354</v>
+      </c>
+      <c r="BQ47">
+        <v>68.18279498210079</v>
+      </c>
+      <c r="BR47">
+        <v>141.6635448428823</v>
+      </c>
+      <c r="BS47">
+        <v>154.2982081822491</v>
+      </c>
+      <c r="BT47">
+        <v>0</v>
+      </c>
+      <c r="BU47">
+        <v>0</v>
+      </c>
+      <c r="BV47">
+        <v>108.4464659463161</v>
+      </c>
+      <c r="BW47">
+        <v>46.01032394546784</v>
+      </c>
+      <c r="BX47">
+        <v>2.08771481674073</v>
+      </c>
+      <c r="BY47">
+        <v>67.24685074317733</v>
+      </c>
+      <c r="BZ47">
+        <v>231.1734089319239</v>
+      </c>
+      <c r="CA47">
+        <v>0</v>
+      </c>
+      <c r="CB47">
+        <v>0</v>
+      </c>
+      <c r="CC47">
+        <v>184.6613057117234</v>
+      </c>
+      <c r="CD47">
+        <v>0</v>
+      </c>
+      <c r="CE47">
+        <v>702.3177803970052</v>
+      </c>
+      <c r="CF47">
+        <v>0</v>
+      </c>
+      <c r="CG47">
+        <v>0</v>
+      </c>
+      <c r="CH47">
+        <v>729.5236481995167</v>
+      </c>
+      <c r="CI47">
+        <v>908.091654480643</v>
+      </c>
+      <c r="CJ47">
+        <v>348.3210565931838</v>
+      </c>
+      <c r="CK47">
+        <v>0</v>
+      </c>
+      <c r="CL47">
+        <v>450.4286800693229</v>
+      </c>
+      <c r="CM47">
+        <v>581.3479624683254</v>
+      </c>
+      <c r="CN47">
+        <v>0</v>
+      </c>
+      <c r="CO47">
+        <v>0</v>
+      </c>
+      <c r="CP47">
+        <v>475.2822770057195</v>
+      </c>
+      <c r="CQ47">
+        <v>0</v>
+      </c>
+      <c r="CR47">
+        <v>381.1003908938076</v>
+      </c>
+      <c r="CS47">
+        <v>0</v>
+      </c>
+      <c r="CT47">
+        <v>908.3968043428185</v>
+      </c>
+      <c r="CU47">
+        <v>0</v>
+      </c>
+      <c r="CV47">
+        <v>534.8377662120251</v>
+      </c>
+      <c r="CW47">
+        <v>0</v>
+      </c>
+      <c r="CX47">
+        <v>0</v>
+      </c>
+      <c r="CY47">
+        <v>0</v>
+      </c>
+      <c r="CZ47">
+        <v>105.4465455642277</v>
+      </c>
+      <c r="DA47">
+        <v>0</v>
+      </c>
+      <c r="DB47">
+        <v>53.54824796936703</v>
+      </c>
+      <c r="DC47">
+        <v>0</v>
+      </c>
+      <c r="DD47">
+        <v>0</v>
+      </c>
+      <c r="DE47">
+        <v>0</v>
+      </c>
+      <c r="DF47">
+        <v>0</v>
+      </c>
+      <c r="DG47">
+        <v>0</v>
+      </c>
+      <c r="DH47">
+        <v>173.847253633579</v>
+      </c>
+      <c r="DI47">
+        <v>654.8341627054131</v>
+      </c>
+      <c r="DJ47">
+        <v>0</v>
+      </c>
+      <c r="DK47">
+        <v>0</v>
+      </c>
+      <c r="DL47">
+        <v>383.8524390024214</v>
+      </c>
+      <c r="DM47">
+        <v>0</v>
+      </c>
+      <c r="DN47">
+        <v>269.5612863799487</v>
+      </c>
+      <c r="DO47">
+        <v>839.9369396855471</v>
+      </c>
+      <c r="DP47">
+        <v>966.480443066781</v>
+      </c>
+      <c r="DQ47">
+        <v>456.4305442695618</v>
+      </c>
+      <c r="DR47">
+        <v>0</v>
+      </c>
+      <c r="DS47">
+        <v>0</v>
+      </c>
+      <c r="DT47">
+        <v>0</v>
+      </c>
+      <c r="DU47">
+        <v>0</v>
+      </c>
+      <c r="DV47">
+        <v>0</v>
+      </c>
+      <c r="DW47">
+        <v>0</v>
+      </c>
+      <c r="DX47">
+        <v>538.5968213696259</v>
+      </c>
+      <c r="DY47">
+        <v>301.0507196209036</v>
+      </c>
+      <c r="DZ47">
+        <v>0</v>
+      </c>
+      <c r="EA47">
+        <v>516.9672051691632</v>
+      </c>
+      <c r="EB47">
+        <v>0</v>
+      </c>
+      <c r="EC47">
+        <v>2116.720132085079</v>
+      </c>
+      <c r="ED47">
+        <v>0</v>
+      </c>
+      <c r="EE47">
+        <v>0</v>
+      </c>
+      <c r="EF47">
+        <v>364.9417531794148</v>
+      </c>
+      <c r="EG47">
+        <v>505.8478642158904</v>
+      </c>
+      <c r="EH47">
+        <v>49.71585485491031</v>
+      </c>
+      <c r="EI47">
+        <v>0</v>
+      </c>
+      <c r="EJ47">
+        <v>875.7494136996373</v>
+      </c>
+      <c r="EK47">
+        <v>0</v>
+      </c>
+      <c r="EL47">
+        <v>422.1093232122134</v>
+      </c>
+      <c r="EM47">
+        <v>483.1205250492866</v>
+      </c>
+      <c r="EN47">
+        <v>0</v>
+      </c>
+      <c r="EO47">
+        <v>0</v>
+      </c>
+      <c r="EP47">
+        <v>0</v>
+      </c>
+      <c r="EQ47">
+        <v>0</v>
+      </c>
+      <c r="ER47">
+        <v>0</v>
+      </c>
+      <c r="ES47">
+        <v>440.4817582275221</v>
+      </c>
+      <c r="ET47">
+        <v>712.7473672074223</v>
+      </c>
+      <c r="EU47">
+        <v>0</v>
+      </c>
+      <c r="EV47">
+        <v>0</v>
+      </c>
+      <c r="EW47">
+        <v>1175.731129470483</v>
+      </c>
+      <c r="EX47">
+        <v>0</v>
+      </c>
+      <c r="EY47">
+        <v>0</v>
+      </c>
+      <c r="EZ47">
+        <v>6.343491143219572</v>
+      </c>
+      <c r="FA47">
+        <v>326.2223003029995</v>
+      </c>
+      <c r="FB47">
+        <v>0</v>
+      </c>
+      <c r="FC47">
+        <v>0</v>
+      </c>
+      <c r="FD47">
+        <v>592.0759328233112</v>
+      </c>
+      <c r="FE47">
+        <v>4.14112933427343</v>
+      </c>
+      <c r="FF47">
+        <v>0</v>
+      </c>
+      <c r="FG47">
+        <v>1693.51092794478</v>
+      </c>
+      <c r="FH47">
+        <v>0</v>
+      </c>
+      <c r="FI47">
+        <v>0</v>
+      </c>
+      <c r="FJ47">
+        <v>550.7282619328104</v>
+      </c>
+      <c r="FK47">
+        <v>0</v>
+      </c>
+      <c r="FL47">
+        <v>279.5800833635119</v>
+      </c>
+      <c r="FM47">
+        <v>0</v>
+      </c>
+      <c r="FN47">
+        <v>0</v>
+      </c>
+      <c r="FO47">
+        <v>508.6280344172346</v>
+      </c>
+      <c r="FP47">
+        <v>274.568626857958</v>
+      </c>
+      <c r="FQ47">
+        <v>398.3613296584771</v>
+      </c>
+      <c r="FR47">
+        <v>0</v>
+      </c>
+      <c r="FS47">
+        <v>362.1602017482217</v>
+      </c>
+      <c r="FT47">
+        <v>91.00872626640547</v>
+      </c>
+      <c r="FU47">
+        <v>0</v>
+      </c>
+      <c r="FV47">
+        <v>26.37600128718807</v>
+      </c>
+      <c r="FW47">
+        <v>0</v>
+      </c>
+      <c r="FX47">
+        <v>757.3732104433221</v>
+      </c>
+      <c r="FY47">
+        <v>521.56179378771</v>
+      </c>
+      <c r="FZ47">
+        <v>144.7735365136191</v>
+      </c>
+      <c r="GA47">
+        <v>1100.582851334681</v>
+      </c>
+      <c r="GB47">
+        <v>380.5596623712664</v>
+      </c>
+      <c r="GC47">
+        <v>0</v>
+      </c>
+      <c r="GD47">
+        <v>0</v>
+      </c>
+      <c r="GE47">
+        <v>0</v>
+      </c>
+      <c r="GF47">
+        <v>0</v>
+      </c>
+      <c r="GG47">
+        <v>0</v>
+      </c>
+      <c r="GH47">
+        <v>1625.133397696552</v>
+      </c>
+      <c r="GI47">
+        <v>66.95680018506519</v>
+      </c>
+      <c r="GJ47">
+        <v>0</v>
+      </c>
+      <c r="GK47">
+        <v>374.0237238963707</v>
+      </c>
+      <c r="GL47">
+        <v>1604.92852558617</v>
+      </c>
+      <c r="GM47">
+        <v>1140.42884128899</v>
+      </c>
+      <c r="GN47">
+        <v>0</v>
+      </c>
+      <c r="GO47">
+        <v>401.8713775162385</v>
+      </c>
+      <c r="GP47">
+        <v>101.5748325918194</v>
+      </c>
+      <c r="GQ47">
+        <v>4.017421968766477</v>
+      </c>
+      <c r="GR47">
+        <v>0</v>
+      </c>
+      <c r="GS47">
+        <v>0</v>
+      </c>
+      <c r="GT47">
+        <v>0</v>
+      </c>
+      <c r="GU47">
+        <v>424.277511022607</v>
+      </c>
+      <c r="GV47">
+        <v>0</v>
+      </c>
+      <c r="GW47">
+        <v>716.8595298642151</v>
+      </c>
+      <c r="GX47">
+        <v>0</v>
+      </c>
+      <c r="GY47">
+        <v>0</v>
+      </c>
+      <c r="GZ47">
+        <v>551.4510758324921</v>
+      </c>
+      <c r="HA47">
+        <v>0</v>
+      </c>
+      <c r="HB47">
+        <v>0</v>
+      </c>
+      <c r="HC47">
+        <v>0</v>
+      </c>
+      <c r="HD47">
+        <v>4.180334882370253</v>
+      </c>
+      <c r="HE47">
+        <v>203.4497540855666</v>
+      </c>
+      <c r="HF47">
+        <v>356.7595246265323</v>
+      </c>
+      <c r="HG47">
+        <v>0</v>
+      </c>
+      <c r="HH47">
+        <v>0</v>
+      </c>
+      <c r="HI47">
+        <v>0</v>
+      </c>
+      <c r="HJ47">
+        <v>888.0596987199661</v>
+      </c>
+      <c r="HK47">
+        <v>335.0385551121453</v>
+      </c>
+      <c r="HL47">
+        <v>162.173564326569</v>
+      </c>
+      <c r="HM47">
+        <v>0</v>
+      </c>
+      <c r="HN47">
+        <v>0</v>
+      </c>
+      <c r="HO47">
+        <v>87.18345239717291</v>
+      </c>
+      <c r="HP47">
+        <v>0</v>
+      </c>
+      <c r="HQ47">
+        <v>4100.235942741306</v>
+      </c>
+      <c r="HR47">
+        <v>1240.187112745012</v>
+      </c>
+      <c r="HS47">
+        <v>0</v>
+      </c>
+      <c r="HT47">
+        <v>270.4710139695795</v>
+      </c>
+      <c r="HU47">
+        <v>0</v>
+      </c>
+      <c r="HV47">
+        <v>391.3778895655582</v>
+      </c>
+      <c r="HW47">
+        <v>0</v>
+      </c>
+      <c r="HX47">
+        <v>719.8294609981504</v>
+      </c>
+      <c r="HY47">
+        <v>183.310516132936</v>
+      </c>
+      <c r="HZ47">
+        <v>0</v>
+      </c>
+      <c r="IA47">
+        <v>3967.687695871331</v>
+      </c>
+      <c r="IB47">
+        <v>527.1016605100402</v>
+      </c>
+      <c r="IC47">
+        <v>0</v>
+      </c>
+      <c r="ID47">
+        <v>0</v>
+      </c>
+      <c r="IE47">
+        <v>173.6080789825696</v>
+      </c>
+      <c r="IF47">
+        <v>0</v>
+      </c>
+      <c r="IG47">
+        <v>9.159861272840839</v>
+      </c>
+      <c r="IH47">
+        <v>0</v>
+      </c>
+      <c r="II47">
+        <v>1588.813927571137</v>
+      </c>
+      <c r="IJ47">
+        <v>0</v>
+      </c>
+      <c r="IK47">
+        <v>0</v>
+      </c>
+      <c r="IL47">
+        <v>0</v>
+      </c>
+      <c r="IM47">
+        <v>0</v>
+      </c>
+      <c r="IN47">
+        <v>29.6467403011354</v>
+      </c>
+      <c r="IO47">
+        <v>428.1113819448542</v>
+      </c>
+      <c r="IP47">
+        <v>197.5793637359868</v>
+      </c>
+      <c r="IQ47">
+        <v>0</v>
+      </c>
+      <c r="IR47">
+        <v>0</v>
+      </c>
+      <c r="IS47">
+        <v>790.2220066049952</v>
+      </c>
+      <c r="IT47">
+        <v>221.7565058656193</v>
+      </c>
+      <c r="IU47">
+        <v>230.6045682097962</v>
+      </c>
+      <c r="IV47">
+        <v>0</v>
+      </c>
+      <c r="IW47">
+        <v>773.1440024699824</v>
+      </c>
+      <c r="IX47">
+        <v>0</v>
+      </c>
+      <c r="IY47">
+        <v>360.5733264333106</v>
+      </c>
+      <c r="IZ47">
+        <v>82.81302175650032</v>
+      </c>
+      <c r="JA47">
+        <v>98.80607332065935</v>
+      </c>
+      <c r="JB47">
+        <v>1859.913651139648</v>
+      </c>
+      <c r="JC47">
+        <v>419.3181796201226</v>
+      </c>
+      <c r="JD47">
+        <v>6.728421166285229</v>
+      </c>
+      <c r="JE47">
+        <v>1797.432442885617</v>
+      </c>
+      <c r="JF47">
+        <v>293.0153611569751</v>
+      </c>
+      <c r="JG47">
+        <v>474.8601643353819</v>
+      </c>
+      <c r="JH47">
+        <v>43.90132772522166</v>
+      </c>
+      <c r="JI47">
+        <v>92.73220714306903</v>
+      </c>
+      <c r="JJ47">
+        <v>0</v>
+      </c>
+      <c r="JK47">
+        <v>1428.07979808217</v>
+      </c>
+      <c r="JL47">
+        <v>0</v>
+      </c>
+      <c r="JM47">
+        <v>0</v>
+      </c>
+      <c r="JN47">
+        <v>148.4617164181293</v>
+      </c>
+      <c r="JO47">
+        <v>0</v>
+      </c>
+      <c r="JP47">
+        <v>2983.917996468685</v>
+      </c>
+      <c r="JQ47">
+        <v>0</v>
+      </c>
+      <c r="JR47">
+        <v>19.43350926173421</v>
+      </c>
+      <c r="JS47">
+        <v>369.2824085000087</v>
+      </c>
+      <c r="JT47">
+        <v>2102.7592437459</v>
+      </c>
+      <c r="JU47">
+        <v>328.7896903726656</v>
+      </c>
+      <c r="JV47">
+        <v>177.6227646357466</v>
+      </c>
+      <c r="JW47">
+        <v>0</v>
+      </c>
+      <c r="JX47">
+        <v>370.987751569117</v>
+      </c>
+      <c r="JY47">
+        <v>1315.79485664931</v>
+      </c>
+      <c r="JZ47">
+        <v>150.7978242293471</v>
+      </c>
+      <c r="KA47">
+        <v>139.1084214258954</v>
+      </c>
+      <c r="KB47">
+        <v>185.0844374268527</v>
+      </c>
+      <c r="KC47">
+        <v>0</v>
+      </c>
+      <c r="KD47">
+        <v>0</v>
+      </c>
+      <c r="KE47">
+        <v>370.1045567443864</v>
+      </c>
+      <c r="KF47">
+        <v>0</v>
+      </c>
+      <c r="KG47">
+        <v>833.1925505915531</v>
+      </c>
+      <c r="KH47">
+        <v>88.55448443665929</v>
+      </c>
+      <c r="KI47">
+        <v>0</v>
+      </c>
+      <c r="KJ47">
+        <v>0</v>
+      </c>
+      <c r="KK47">
+        <v>0</v>
+      </c>
+      <c r="KL47">
+        <v>127.4220265723261</v>
+      </c>
+      <c r="KM47">
+        <v>47.80265051669485</v>
+      </c>
+      <c r="KN47">
+        <v>0</v>
+      </c>
+      <c r="KO47">
+        <v>479.4181421371447</v>
+      </c>
+      <c r="KP47">
+        <v>0</v>
+      </c>
+      <c r="KQ47">
+        <v>281.5184696296407</v>
+      </c>
+      <c r="KR47">
+        <v>879.2861010997292</v>
+      </c>
+      <c r="KS47">
+        <v>0</v>
+      </c>
+      <c r="KT47">
+        <v>0</v>
+      </c>
+      <c r="KU47">
+        <v>0</v>
+      </c>
+      <c r="KV47">
+        <v>195.2892217993547</v>
+      </c>
+      <c r="KW47">
+        <v>96.15375078030024</v>
+      </c>
+      <c r="KX47">
+        <v>0.3010481265208884</v>
+      </c>
+      <c r="KY47">
+        <v>623.7137856424222</v>
+      </c>
+      <c r="KZ47">
+        <v>165.142213124397</v>
+      </c>
+      <c r="LA47">
+        <v>286.3096409000246</v>
+      </c>
+      <c r="LB47">
+        <v>909.7818129518311</v>
+      </c>
+      <c r="LC47">
+        <v>231.5332093716811</v>
+      </c>
+      <c r="LD47">
+        <v>0</v>
+      </c>
+      <c r="LE47">
+        <v>297.3607462296208</v>
+      </c>
+      <c r="LF47">
+        <v>0</v>
+      </c>
+      <c r="LG47">
+        <v>88.47278797249362</v>
+      </c>
+      <c r="LH47">
+        <v>0</v>
+      </c>
+      <c r="LI47">
+        <v>0</v>
+      </c>
+      <c r="LJ47">
+        <v>460.2791169005494</v>
+      </c>
+      <c r="LK47">
+        <v>879.5490008866994</v>
+      </c>
+      <c r="LL47">
+        <v>14.90839753769235</v>
+      </c>
+      <c r="LM47">
+        <v>141.1267970088761</v>
+      </c>
+      <c r="LN47">
+        <v>296.570212477952</v>
+      </c>
+      <c r="LO47">
+        <v>708.4443451875763</v>
+      </c>
+      <c r="LP47">
+        <v>0</v>
+      </c>
+      <c r="LQ47">
+        <v>831.5799268538891</v>
+      </c>
+      <c r="LR47">
+        <v>96.04516140957479</v>
+      </c>
+      <c r="LS47">
+        <v>0</v>
+      </c>
+      <c r="LT47">
+        <v>0</v>
+      </c>
+      <c r="LU47">
+        <v>4.258635817862444</v>
+      </c>
+      <c r="LV47">
+        <v>146.515484339549</v>
+      </c>
+      <c r="LW47">
+        <v>2565.55405869069</v>
+      </c>
+      <c r="LX47">
+        <v>286.6068810596273</v>
+      </c>
+      <c r="LY47">
+        <v>0</v>
+      </c>
+      <c r="LZ47">
+        <v>8.163935601678475</v>
+      </c>
+      <c r="MA47">
+        <v>39.81787631149739</v>
+      </c>
+      <c r="MB47">
+        <v>2868.215053748437</v>
+      </c>
+      <c r="MC47">
+        <v>0</v>
+      </c>
+      <c r="MD47">
+        <v>0</v>
+      </c>
+      <c r="ME47">
+        <v>0</v>
+      </c>
+      <c r="MF47">
+        <v>171.0954318003153</v>
+      </c>
+      <c r="MG47">
+        <v>2092.402857532144</v>
+      </c>
+      <c r="MH47">
+        <v>0</v>
+      </c>
+      <c r="MI47">
+        <v>-0</v>
+      </c>
+      <c r="MJ47">
+        <v>0</v>
+      </c>
+      <c r="MK47">
+        <v>0</v>
+      </c>
+      <c r="ML47">
+        <v>141.334394842977</v>
+      </c>
+      <c r="MM47">
+        <v>0</v>
+      </c>
+      <c r="MN47">
+        <v>45.06926595535835</v>
+      </c>
+      <c r="MO47">
+        <v>2095.154294035495</v>
+      </c>
+      <c r="MP47">
+        <v>222.2340036996875</v>
+      </c>
+      <c r="MQ47">
+        <v>1560.838736702703</v>
+      </c>
+      <c r="MR47">
+        <v>0</v>
+      </c>
+      <c r="MS47">
+        <v>238.2377191706084</v>
+      </c>
+      <c r="MT47">
+        <v>13.20119188387856</v>
+      </c>
+      <c r="MU47">
+        <v>0</v>
+      </c>
+      <c r="MV47">
+        <v>0</v>
+      </c>
+      <c r="MW47">
+        <v>0</v>
+      </c>
+      <c r="MX47">
+        <v>0</v>
+      </c>
+      <c r="MY47">
+        <v>235.317391615093</v>
+      </c>
+      <c r="MZ47">
+        <v>0</v>
+      </c>
+      <c r="NA47">
+        <v>5.178426678270466</v>
+      </c>
+      <c r="NB47">
+        <v>500.138930589119</v>
+      </c>
+      <c r="NC47">
+        <v>0</v>
+      </c>
+      <c r="ND47">
+        <v>517.1913647430897</v>
+      </c>
+      <c r="NE47">
+        <v>247.79402800643</v>
+      </c>
+      <c r="NF47">
+        <v>39.92963017325066</v>
+      </c>
+      <c r="NG47">
+        <v>2750.35767078554</v>
+      </c>
+      <c r="NH47">
+        <v>348.638499302222</v>
+      </c>
+      <c r="NI47">
+        <v>0</v>
+      </c>
+      <c r="NJ47">
+        <v>0</v>
+      </c>
+      <c r="NK47">
+        <v>685.3914602409797</v>
+      </c>
+      <c r="NL47">
+        <v>0</v>
+      </c>
+      <c r="NM47">
+        <v>0</v>
+      </c>
+      <c r="NN47">
+        <v>496.0004593324446</v>
+      </c>
+      <c r="NO47">
+        <v>0</v>
+      </c>
+      <c r="NP47">
+        <v>384.9497740474512</v>
+      </c>
+      <c r="NQ47">
+        <v>437.7309570035949</v>
+      </c>
+      <c r="NR47">
+        <v>1427.276572693093</v>
+      </c>
+      <c r="NS47">
+        <v>0</v>
+      </c>
+      <c r="NT47">
+        <v>0</v>
+      </c>
+      <c r="NU47">
+        <v>0</v>
+      </c>
+      <c r="NV47">
+        <v>2.663931160723406</v>
+      </c>
+      <c r="NW47">
+        <v>3.927970646486636</v>
+      </c>
+      <c r="NX47">
+        <v>922.9655196936156</v>
+      </c>
+      <c r="NY47">
+        <v>14.67668921775386</v>
+      </c>
+      <c r="NZ47">
+        <v>1207.388409045948</v>
+      </c>
+      <c r="OA47">
+        <v>0</v>
+      </c>
+      <c r="OB47">
+        <v>514.4722816839188</v>
+      </c>
+      <c r="OC47">
+        <v>0</v>
+      </c>
+      <c r="OD47">
+        <v>0</v>
+      </c>
+      <c r="OE47">
+        <v>154.0526064457605</v>
+      </c>
+      <c r="OF47">
+        <v>0</v>
+      </c>
+      <c r="OG47">
+        <v>0</v>
+      </c>
+      <c r="OH47">
+        <v>243.7167138147433</v>
+      </c>
+      <c r="OI47">
+        <v>0</v>
+      </c>
+      <c r="OJ47">
+        <v>217.8156277060863</v>
+      </c>
+      <c r="OK47">
+        <v>0</v>
+      </c>
+      <c r="OL47">
+        <v>0</v>
+      </c>
+      <c r="OM47">
+        <v>516.2024607828251</v>
+      </c>
+      <c r="ON47">
+        <v>0</v>
+      </c>
+      <c r="OO47">
+        <v>0</v>
+      </c>
+      <c r="OP47">
+        <v>7.941835901968208</v>
+      </c>
+      <c r="OQ47">
+        <v>1479.713680520468</v>
+      </c>
+      <c r="OR47">
+        <v>0.633886221903501</v>
+      </c>
+      <c r="OS47">
+        <v>131.7256554944386</v>
+      </c>
+      <c r="OT47">
+        <v>0</v>
+      </c>
+      <c r="OU47">
+        <v>114.5944880682421</v>
+      </c>
+      <c r="OV47">
+        <v>0</v>
+      </c>
+      <c r="OW47">
+        <v>11.77563732584612</v>
+      </c>
+      <c r="OX47">
+        <v>0</v>
+      </c>
+      <c r="OY47">
+        <v>794.2081433816187</v>
+      </c>
+      <c r="OZ47">
+        <v>0</v>
+      </c>
+      <c r="PA47">
+        <v>220.9724101158841</v>
+      </c>
+      <c r="PB47">
+        <v>0</v>
+      </c>
+      <c r="PC47">
+        <v>71.19343974655834</v>
+      </c>
+      <c r="PD47">
+        <v>0</v>
+      </c>
+      <c r="PE47">
+        <v>455.1492571583086</v>
+      </c>
+      <c r="PF47">
+        <v>561.5170470550451</v>
+      </c>
+      <c r="PG47">
+        <v>0</v>
+      </c>
+      <c r="PH47">
+        <v>744.9924720896342</v>
+      </c>
+      <c r="PI47">
+        <v>743.3904418346261</v>
+      </c>
+      <c r="PJ47">
+        <v>0</v>
+      </c>
+      <c r="PK47">
+        <v>486.9617830275944</v>
+      </c>
+      <c r="PL47">
+        <v>0</v>
+      </c>
+      <c r="PM47">
+        <v>0</v>
+      </c>
+      <c r="PN47">
+        <v>109.7523918781267</v>
+      </c>
+      <c r="PO47">
+        <v>235.1892106461534</v>
+      </c>
+      <c r="PP47">
+        <v>804.2824357595298</v>
+      </c>
+      <c r="PQ47">
+        <v>252.4028226664462</v>
+      </c>
+      <c r="PR47">
+        <v>399.8114115274718</v>
+      </c>
+      <c r="PS47">
+        <v>76.4691331729224</v>
+      </c>
+      <c r="PT47">
+        <v>424.7854978720217</v>
+      </c>
+      <c r="PU47">
+        <v>0</v>
+      </c>
+      <c r="PV47">
+        <v>0</v>
+      </c>
+      <c r="PW47">
+        <v>338.4072973177444</v>
+      </c>
+      <c r="PX47">
+        <v>219.5942620891569</v>
+      </c>
+      <c r="PY47">
+        <v>0</v>
+      </c>
+      <c r="PZ47">
+        <v>19.81260165722914</v>
+      </c>
+      <c r="QA47">
+        <v>425.6729116572579</v>
+      </c>
+      <c r="QB47">
+        <v>0</v>
+      </c>
+      <c r="QC47">
+        <v>0</v>
+      </c>
+      <c r="QD47">
+        <v>0</v>
+      </c>
+      <c r="QE47">
+        <v>801.795517618379</v>
+      </c>
+      <c r="QF47">
+        <v>0.3020928180076377</v>
+      </c>
+      <c r="QG47">
+        <v>67.45582890770814</v>
+      </c>
+      <c r="QH47">
+        <v>0</v>
+      </c>
+      <c r="QI47">
+        <v>972.5534636888488</v>
+      </c>
+      <c r="QJ47">
+        <v>0</v>
+      </c>
+      <c r="QK47">
+        <v>645.1232784538919</v>
+      </c>
+      <c r="QL47">
+        <v>254.9005357426872</v>
+      </c>
+      <c r="QM47">
+        <v>1.715890854318166</v>
+      </c>
+      <c r="QN47">
+        <v>703.3216310043882</v>
+      </c>
+      <c r="QO47">
+        <v>2662.62467501002</v>
+      </c>
+      <c r="QP47">
+        <v>2991.629304318846</v>
+      </c>
+      <c r="QQ47">
+        <v>169.5282351320011</v>
+      </c>
+      <c r="QR47">
+        <v>0</v>
+      </c>
+      <c r="QS47">
+        <v>0</v>
+      </c>
+      <c r="QT47">
+        <v>0</v>
+      </c>
+      <c r="QU47">
+        <v>127.7404252647524</v>
+      </c>
+      <c r="QV47">
+        <v>0</v>
+      </c>
+      <c r="QW47">
+        <v>357.6696019834284</v>
+      </c>
+      <c r="QX47">
+        <v>0</v>
+      </c>
+      <c r="QY47">
+        <v>0</v>
+      </c>
+      <c r="QZ47">
+        <v>0</v>
+      </c>
+      <c r="RA47">
+        <v>261.8606883723068</v>
+      </c>
+      <c r="RB47">
+        <v>0</v>
+      </c>
+      <c r="RC47">
+        <v>104.6852726001587</v>
+      </c>
+      <c r="RD47">
+        <v>346.5259307758783</v>
+      </c>
+      <c r="RE47">
+        <v>831.8191324207736</v>
+      </c>
+      <c r="RF47">
+        <v>0</v>
+      </c>
+      <c r="RG47">
+        <v>0</v>
+      </c>
+      <c r="RH47">
+        <v>0</v>
+      </c>
+      <c r="RI47">
+        <v>530.9128098985983</v>
+      </c>
+      <c r="RJ47">
+        <v>279.5103593545676</v>
+      </c>
+      <c r="RK47">
+        <v>658.2720782024774</v>
+      </c>
+      <c r="RL47">
+        <v>561.1058489172541</v>
+      </c>
+      <c r="RM47">
+        <v>91.95109350313182</v>
+      </c>
+      <c r="RN47">
+        <v>0</v>
+      </c>
+      <c r="RO47">
+        <v>0</v>
+      </c>
+      <c r="RP47">
+        <v>313.1628957753986</v>
+      </c>
+      <c r="RQ47">
+        <v>0</v>
+      </c>
+      <c r="RR47">
+        <v>583.396725683145</v>
       </c>
     </row>
   </sheetData>
